--- a/data/output/high_noisy_50/results/gnlm_bm3d_high_filtereds.xlsx
+++ b/data/output/high_noisy_50/results/gnlm_bm3d_high_filtereds.xlsx
@@ -507,43 +507,43 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>228</v>
+        <v>329</v>
       </c>
       <c r="B2" t="n">
-        <v>353.4</v>
+        <v>509.95</v>
       </c>
       <c r="C2" t="n">
-        <v>42.83071441820135</v>
+        <v>43.25026962593222</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3437924939718583</v>
+        <v>0.4748980453631449</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4051709084775093</v>
+        <v>0.4857423130753822</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6457690376892735</v>
+        <v>0.638187339671962</v>
       </c>
       <c r="G2" t="n">
-        <v>17.01345465854669</v>
+        <v>22.26300633839548</v>
       </c>
       <c r="H2" t="n">
-        <v>19.56391348371912</v>
+        <v>22.28286386693337</v>
       </c>
       <c r="I2" t="n">
-        <v>24.52076342930553</v>
+        <v>24.47616063176604</v>
       </c>
       <c r="J2" t="n">
-        <v>25.69635202786626</v>
+        <v>34.87640543735498</v>
       </c>
       <c r="K2" t="n">
-        <v>30.04050216573502</v>
+        <v>35.4285475872358</v>
       </c>
       <c r="L2" t="n">
-        <v>44.54883359911644</v>
+        <v>44.14744729948112</v>
       </c>
       <c r="M2" t="n">
-        <v>410.6815464496613</v>
+        <v>217.3686091899872</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -553,43 +553,43 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>228</v>
+        <v>495</v>
       </c>
       <c r="B3" t="n">
-        <v>353.4</v>
+        <v>767.25</v>
       </c>
       <c r="C3" t="n">
-        <v>47.47487492435779</v>
+        <v>47.02147613571133</v>
       </c>
       <c r="D3" t="n">
-        <v>0.143001734474611</v>
+        <v>0.7193530074784527</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2083185876899571</v>
+        <v>0.6036638658853258</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7737878960369431</v>
+        <v>0.7641820311002293</v>
       </c>
       <c r="G3" t="n">
-        <v>16.54310585904444</v>
+        <v>27.33430079743394</v>
       </c>
       <c r="H3" t="n">
-        <v>19.45579416560585</v>
+        <v>27.2787934907056</v>
       </c>
       <c r="I3" t="n">
-        <v>29.16863501765567</v>
+        <v>28.93774102771236</v>
       </c>
       <c r="J3" t="n">
-        <v>15.42163965325277</v>
+        <v>49.6348007726396</v>
       </c>
       <c r="K3" t="n">
-        <v>20.14382646730078</v>
+        <v>43.82259003961909</v>
       </c>
       <c r="L3" t="n">
-        <v>53.27371231067499</v>
+        <v>52.67797206886765</v>
       </c>
       <c r="M3" t="n">
-        <v>404.2124800682068</v>
+        <v>208.145076751709</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -599,43 +599,43 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>228</v>
+        <v>398</v>
       </c>
       <c r="B4" t="n">
-        <v>353.4</v>
+        <v>616.9</v>
       </c>
       <c r="C4" t="n">
-        <v>46.88073174519077</v>
+        <v>47.01539628118522</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1774532358254132</v>
+        <v>0.5213192368157947</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2429405433829082</v>
+        <v>0.4345616904938471</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6410244805549039</v>
+        <v>0.6390702914074924</v>
       </c>
       <c r="G4" t="n">
-        <v>16.09866590537206</v>
+        <v>25.17375294227701</v>
       </c>
       <c r="H4" t="n">
-        <v>19.00268543913511</v>
+        <v>24.42736742519087</v>
       </c>
       <c r="I4" t="n">
-        <v>26.8110844635954</v>
+        <v>26.77863171302467</v>
       </c>
       <c r="J4" t="n">
-        <v>16.92199474395669</v>
+        <v>38.65283831192824</v>
       </c>
       <c r="K4" t="n">
-        <v>21.64836988871296</v>
+        <v>33.94176823728779</v>
       </c>
       <c r="L4" t="n">
-        <v>45.45676625954289</v>
+        <v>45.34283042688696</v>
       </c>
       <c r="M4" t="n">
-        <v>399.3382108211517</v>
+        <v>225.0896947383881</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -645,43 +645,43 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>228</v>
+        <v>420</v>
       </c>
       <c r="B5" t="n">
-        <v>353.4</v>
+        <v>651</v>
       </c>
       <c r="C5" t="n">
-        <v>43.89303467427226</v>
+        <v>44.06546500431148</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2152100639266073</v>
+        <v>0.5764775289294019</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2664278672586661</v>
+        <v>0.4790383078278854</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6850273783090212</v>
+        <v>0.6821234561176439</v>
       </c>
       <c r="G5" t="n">
-        <v>17.13176591149083</v>
+        <v>24.37940384967839</v>
       </c>
       <c r="H5" t="n">
-        <v>19.72410020938228</v>
+        <v>24.59113629508568</v>
       </c>
       <c r="I5" t="n">
-        <v>26.50730223088114</v>
+        <v>26.46547026544416</v>
       </c>
       <c r="J5" t="n">
-        <v>19.32638615207578</v>
+        <v>41.01357837130929</v>
       </c>
       <c r="K5" t="n">
-        <v>23.18344346762444</v>
+        <v>36.24748353893711</v>
       </c>
       <c r="L5" t="n">
-        <v>47.50502003089163</v>
+        <v>47.33890793860428</v>
       </c>
       <c r="M5" t="n">
-        <v>398.1046075820923</v>
+        <v>214.8584032058716</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -691,43 +691,43 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>228</v>
+        <v>343</v>
       </c>
       <c r="B6" t="n">
-        <v>353.4</v>
+        <v>531.65</v>
       </c>
       <c r="C6" t="n">
-        <v>41.06717201948164</v>
+        <v>41.27221299249533</v>
       </c>
       <c r="D6" t="n">
-        <v>0.303241655788406</v>
+        <v>0.4439150833469461</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3719734542486774</v>
+        <v>0.4376824179267642</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5229966929185584</v>
+        <v>0.5239943143837466</v>
       </c>
       <c r="G6" t="n">
-        <v>16.50239965321073</v>
+        <v>21.82045749930183</v>
       </c>
       <c r="H6" t="n">
-        <v>19.09865302604721</v>
+        <v>21.7227510823288</v>
       </c>
       <c r="I6" t="n">
-        <v>23.12415860519593</v>
+        <v>23.09650110677427</v>
       </c>
       <c r="J6" t="n">
-        <v>23.41328261602566</v>
+        <v>33.10598291699822</v>
       </c>
       <c r="K6" t="n">
-        <v>28.14799922545748</v>
+        <v>32.74549643750261</v>
       </c>
       <c r="L6" t="n">
-        <v>37.71191394852588</v>
+        <v>37.74796627257446</v>
       </c>
       <c r="M6" t="n">
-        <v>389.9043006896973</v>
+        <v>216.5218813419342</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -737,43 +737,43 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>228</v>
+        <v>344</v>
       </c>
       <c r="B7" t="n">
-        <v>353.4</v>
+        <v>533.2</v>
       </c>
       <c r="C7" t="n">
-        <v>43.78592460455803</v>
+        <v>43.72255272552072</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4240051836018274</v>
+        <v>0.6189930848674579</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4978606461732157</v>
+        <v>0.6028547801649555</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7121281379001918</v>
+        <v>0.7111533278999629</v>
       </c>
       <c r="G7" t="n">
-        <v>16.73662155306973</v>
+        <v>21.60766295921675</v>
       </c>
       <c r="H7" t="n">
-        <v>19.45740089035826</v>
+        <v>22.13211562473666</v>
       </c>
       <c r="I7" t="n">
-        <v>23.67795299809482</v>
+        <v>23.66665356600667</v>
       </c>
       <c r="J7" t="n">
-        <v>29.56856995662623</v>
+        <v>41.75348572298127</v>
       </c>
       <c r="K7" t="n">
-        <v>34.62173275383991</v>
+        <v>41.20879682061611</v>
       </c>
       <c r="L7" t="n">
-        <v>47.445383394057</v>
+        <v>47.39099317800148</v>
       </c>
       <c r="M7" t="n">
-        <v>385.4771983623505</v>
+        <v>215.2305133342743</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -783,43 +783,43 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>228</v>
+        <v>490</v>
       </c>
       <c r="B8" t="n">
-        <v>353.4</v>
+        <v>759.5</v>
       </c>
       <c r="C8" t="n">
-        <v>49.0323583279106</v>
+        <v>49.1292796925748</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1089273705193955</v>
+        <v>0.613545346607514</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1716287834856119</v>
+        <v>0.5162521502380887</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7023199527702738</v>
+        <v>0.701993082571264</v>
       </c>
       <c r="G8" t="n">
-        <v>15.44771866952476</v>
+        <v>27.46044482943327</v>
       </c>
       <c r="H8" t="n">
-        <v>18.55331875249866</v>
+        <v>26.84701340380004</v>
       </c>
       <c r="I8" t="n">
-        <v>29.04609925302088</v>
+        <v>29.04268992083387</v>
       </c>
       <c r="J8" t="n">
-        <v>13.17022786073215</v>
+        <v>44.40748974509234</v>
       </c>
       <c r="K8" t="n">
-        <v>17.85809855052992</v>
+        <v>39.23611421380446</v>
       </c>
       <c r="L8" t="n">
-        <v>49.63904726502413</v>
+        <v>49.62099908898014</v>
       </c>
       <c r="M8" t="n">
-        <v>389.6724483966827</v>
+        <v>210.4455571174622</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -829,43 +829,43 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>228</v>
+        <v>337</v>
       </c>
       <c r="B9" t="n">
-        <v>353.4</v>
+        <v>522.35</v>
       </c>
       <c r="C9" t="n">
-        <v>46.31232190378544</v>
+        <v>46.5474284643906</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2936921805167185</v>
+        <v>0.4999728456714507</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3562653563925364</v>
+        <v>0.4361415771940876</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6006954267367335</v>
+        <v>0.5970786662493177</v>
       </c>
       <c r="G9" t="n">
-        <v>16.06453934775835</v>
+        <v>21.90255140701137</v>
       </c>
       <c r="H9" t="n">
-        <v>18.58695319296941</v>
+        <v>21.44824038225657</v>
       </c>
       <c r="I9" t="n">
-        <v>23.0451638419213</v>
+        <v>23.01082967497255</v>
       </c>
       <c r="J9" t="n">
-        <v>22.7168786997151</v>
+        <v>35.94991798707822</v>
       </c>
       <c r="K9" t="n">
-        <v>27.10674441611153</v>
+        <v>32.53119905083267</v>
       </c>
       <c r="L9" t="n">
-        <v>41.55735325779732</v>
+        <v>41.35934814995215</v>
       </c>
       <c r="M9" t="n">
-        <v>388.3881421089172</v>
+        <v>220.0316379070282</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -875,43 +875,43 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>228</v>
+        <v>414</v>
       </c>
       <c r="B10" t="n">
-        <v>353.4</v>
+        <v>641.7</v>
       </c>
       <c r="C10" t="n">
-        <v>46.91624092346259</v>
+        <v>46.69624068047534</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2175838788493745</v>
+        <v>0.6376669401559667</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2858451541221855</v>
+        <v>0.5272463307980469</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7621793208702015</v>
+        <v>0.757777410766985</v>
       </c>
       <c r="G10" t="n">
-        <v>16.01458247868396</v>
+        <v>24.62294491647911</v>
       </c>
       <c r="H10" t="n">
-        <v>18.98125961966384</v>
+        <v>24.72255182680129</v>
       </c>
       <c r="I10" t="n">
-        <v>27.18888578290752</v>
+        <v>27.14206975245244</v>
       </c>
       <c r="J10" t="n">
-        <v>18.88648518181071</v>
+        <v>44.19481946603789</v>
       </c>
       <c r="K10" t="n">
-        <v>23.7828875159412</v>
+        <v>38.72359245330299</v>
       </c>
       <c r="L10" t="n">
-        <v>51.70340893496383</v>
+        <v>51.45990541457547</v>
       </c>
       <c r="M10" t="n">
-        <v>394.1249005794525</v>
+        <v>209.5324618816376</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -921,43 +921,43 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>228</v>
+        <v>423</v>
       </c>
       <c r="B11" t="n">
-        <v>353.4</v>
+        <v>655.65</v>
       </c>
       <c r="C11" t="n">
-        <v>47.52945787880572</v>
+        <v>47.84864741358737</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1726113275072308</v>
+        <v>0.5659495899485349</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2450099340898597</v>
+        <v>0.4741486927955197</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7014620074615932</v>
+        <v>0.7026732874629624</v>
       </c>
       <c r="G11" t="n">
-        <v>15.79487202013312</v>
+        <v>25.06000534070534</v>
       </c>
       <c r="H11" t="n">
-        <v>18.79147353563461</v>
+        <v>24.77163792195992</v>
       </c>
       <c r="I11" t="n">
-        <v>27.09582245864428</v>
+        <v>27.15983114634707</v>
       </c>
       <c r="J11" t="n">
-        <v>16.5280023854281</v>
+        <v>40.82748216777942</v>
       </c>
       <c r="K11" t="n">
-        <v>21.64623347231029</v>
+        <v>36.09325360075594</v>
       </c>
       <c r="L11" t="n">
-        <v>48.62101160240179</v>
+        <v>48.71357994632166</v>
       </c>
       <c r="M11" t="n">
-        <v>348.9851727485657</v>
+        <v>213.6512007713318</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -967,43 +967,43 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>228</v>
+        <v>373</v>
       </c>
       <c r="B12" t="n">
-        <v>353.4</v>
+        <v>578.15</v>
       </c>
       <c r="C12" t="n">
-        <v>41.38731170827295</v>
+        <v>41.30913609042439</v>
       </c>
       <c r="D12" t="n">
-        <v>0.283502636132749</v>
+        <v>0.4882844657443348</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3342061074877687</v>
+        <v>0.4481314323810691</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5734409991238754</v>
+        <v>0.5711047943819885</v>
       </c>
       <c r="G12" t="n">
-        <v>16.83743551128698</v>
+        <v>22.86798968360652</v>
       </c>
       <c r="H12" t="n">
-        <v>19.40668788679311</v>
+        <v>22.77252092267976</v>
       </c>
       <c r="I12" t="n">
-        <v>24.25628059631416</v>
+        <v>24.2151136810025</v>
       </c>
       <c r="J12" t="n">
-        <v>22.59384956228094</v>
+        <v>35.84821812902</v>
       </c>
       <c r="K12" t="n">
-        <v>26.41364931778499</v>
+        <v>33.79283208039333</v>
       </c>
       <c r="L12" t="n">
-        <v>40.80019025435085</v>
+        <v>40.66279655960067</v>
       </c>
       <c r="M12" t="n">
-        <v>389.6396679878235</v>
+        <v>215.9668555259705</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1013,43 +1013,43 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>228</v>
+        <v>360</v>
       </c>
       <c r="B13" t="n">
-        <v>353.4</v>
+        <v>558</v>
       </c>
       <c r="C13" t="n">
-        <v>41.64399185500821</v>
+        <v>41.43991517520075</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3299436578485744</v>
+        <v>0.5260288602713623</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3850117066261427</v>
+        <v>0.5036942632401616</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6391934568383079</v>
+        <v>0.6395915099481428</v>
       </c>
       <c r="G13" t="n">
-        <v>17.21249017112839</v>
+        <v>22.68908600425885</v>
       </c>
       <c r="H13" t="n">
-        <v>19.76111667745308</v>
+        <v>22.92246363458937</v>
       </c>
       <c r="I13" t="n">
-        <v>24.52670686537198</v>
+        <v>24.56128650445445</v>
       </c>
       <c r="J13" t="n">
-        <v>25.10342797799292</v>
+        <v>37.64598601569754</v>
       </c>
       <c r="K13" t="n">
-        <v>29.13114367003368</v>
+        <v>36.64594497930277</v>
       </c>
       <c r="L13" t="n">
-        <v>44.22302627460138</v>
+        <v>44.26021874963437</v>
       </c>
       <c r="M13" t="n">
-        <v>388.9523148536682</v>
+        <v>216.7904629707336</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1059,43 +1059,43 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>228</v>
+        <v>383</v>
       </c>
       <c r="B14" t="n">
-        <v>353.4</v>
+        <v>593.65</v>
       </c>
       <c r="C14" t="n">
-        <v>47.78297932902672</v>
+        <v>47.67604741318929</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2189985746989879</v>
+        <v>0.5390704284514134</v>
       </c>
       <c r="E14" t="n">
-        <v>0.300450568754188</v>
+        <v>0.4751362939493288</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6931212832639327</v>
+        <v>0.6932675606338198</v>
       </c>
       <c r="G14" t="n">
-        <v>15.54984694241553</v>
+        <v>23.90551411273686</v>
       </c>
       <c r="H14" t="n">
-        <v>18.55018849031899</v>
+        <v>23.53093489513799</v>
       </c>
       <c r="I14" t="n">
-        <v>26.20832968830759</v>
+        <v>26.20727185347537</v>
       </c>
       <c r="J14" t="n">
-        <v>18.72485220615716</v>
+        <v>38.9062784789391</v>
       </c>
       <c r="K14" t="n">
-        <v>24.29762268286889</v>
+        <v>35.52228214503543</v>
       </c>
       <c r="L14" t="n">
-        <v>47.76022900735043</v>
+        <v>47.76701395842868</v>
       </c>
       <c r="M14" t="n">
-        <v>388.3675301074982</v>
+        <v>218.3616461753845</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1105,43 +1105,43 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>228</v>
+        <v>408</v>
       </c>
       <c r="B15" t="n">
-        <v>353.4</v>
+        <v>632.4</v>
       </c>
       <c r="C15" t="n">
-        <v>45.03037185167747</v>
+        <v>44.81836025475361</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2149396447984994</v>
+        <v>0.7257997100433883</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2755791479958496</v>
+        <v>0.582261544145802</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8194107840068393</v>
+        <v>0.818884596403328</v>
       </c>
       <c r="G15" t="n">
-        <v>17.29288520061738</v>
+        <v>25.03012484415499</v>
       </c>
       <c r="H15" t="n">
-        <v>19.90900612386896</v>
+        <v>25.36974990266411</v>
       </c>
       <c r="I15" t="n">
-        <v>27.92228986876998</v>
+        <v>27.86089869177896</v>
       </c>
       <c r="J15" t="n">
-        <v>19.39342484023366</v>
+        <v>48.80504792424691</v>
       </c>
       <c r="K15" t="n">
-        <v>23.73346046172696</v>
+        <v>41.79795215862216</v>
       </c>
       <c r="L15" t="n">
-        <v>54.93168413472696</v>
+        <v>54.87467916605588</v>
       </c>
       <c r="M15" t="n">
-        <v>387.4679532051086</v>
+        <v>204.8719096183777</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1151,43 +1151,43 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>228</v>
+        <v>466</v>
       </c>
       <c r="B16" t="n">
-        <v>353.4</v>
+        <v>722.3000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>46.39215463547229</v>
+        <v>46.00935002747229</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1737269102504573</v>
+        <v>0.5951043583851238</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2211221565320619</v>
+        <v>0.4950261540051253</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7026138389976702</v>
+        <v>0.7012127785186754</v>
       </c>
       <c r="G16" t="n">
-        <v>16.25038672425672</v>
+        <v>25.15736252926258</v>
       </c>
       <c r="H16" t="n">
-        <v>19.13223712961421</v>
+        <v>25.45065679321027</v>
       </c>
       <c r="I16" t="n">
-        <v>27.40596096861812</v>
+        <v>27.39652834604949</v>
       </c>
       <c r="J16" t="n">
-        <v>16.81153887465123</v>
+        <v>42.33389918388748</v>
       </c>
       <c r="K16" t="n">
-        <v>20.6222263914102</v>
+        <v>37.47663609686141</v>
       </c>
       <c r="L16" t="n">
-        <v>48.83367243419256</v>
+        <v>48.75890309895851</v>
       </c>
       <c r="M16" t="n">
-        <v>388.8181366920471</v>
+        <v>206.8324575424194</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1197,43 +1197,43 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>228</v>
+        <v>481</v>
       </c>
       <c r="B17" t="n">
-        <v>353.4</v>
+        <v>745.5500000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>46.84545162190343</v>
+        <v>46.83594725396749</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1594076567805802</v>
+        <v>0.5872005552914962</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2143930614699953</v>
+        <v>0.5014297197947764</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6778932601960151</v>
+        <v>0.6757301869228105</v>
       </c>
       <c r="G17" t="n">
-        <v>16.36323869184795</v>
+        <v>25.71205168358981</v>
       </c>
       <c r="H17" t="n">
-        <v>19.21845198049154</v>
+        <v>25.76178937185585</v>
       </c>
       <c r="I17" t="n">
-        <v>27.53856342694923</v>
+        <v>27.54024603457051</v>
       </c>
       <c r="J17" t="n">
-        <v>16.15200218495298</v>
+        <v>42.21605360636971</v>
       </c>
       <c r="K17" t="n">
-        <v>20.32887906374554</v>
+        <v>37.95238067566675</v>
       </c>
       <c r="L17" t="n">
-        <v>47.66394472327538</v>
+        <v>47.55663236342578</v>
       </c>
       <c r="M17" t="n">
-        <v>390.4524259567261</v>
+        <v>205.7855062484741</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1243,43 +1243,43 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>228</v>
+        <v>329</v>
       </c>
       <c r="B18" t="n">
-        <v>353.4</v>
+        <v>509.95</v>
       </c>
       <c r="C18" t="n">
-        <v>47.69392501333538</v>
+        <v>47.3401227253446</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3766341266032547</v>
+        <v>0.4790455153424245</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4431149095748523</v>
+        <v>0.4769727921620835</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5102627696859233</v>
+        <v>0.5144761170234899</v>
       </c>
       <c r="G18" t="n">
-        <v>15.44507390361469</v>
+        <v>20.37035932204568</v>
       </c>
       <c r="H18" t="n">
-        <v>17.89512628321692</v>
+        <v>20.19382148661139</v>
       </c>
       <c r="I18" t="n">
-        <v>21.12878571134182</v>
+        <v>21.17412492289425</v>
       </c>
       <c r="J18" t="n">
-        <v>26.55424328197008</v>
+        <v>34.13745542814406</v>
       </c>
       <c r="K18" t="n">
-        <v>31.10330862035108</v>
+        <v>33.94555035140988</v>
       </c>
       <c r="L18" t="n">
-        <v>36.07753133996708</v>
+        <v>36.31086831262162</v>
       </c>
       <c r="M18" t="n">
-        <v>385.5664186477661</v>
+        <v>200.6668014526367</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1289,43 +1289,43 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>228</v>
+        <v>362</v>
       </c>
       <c r="B19" t="n">
-        <v>353.4</v>
+        <v>561.1</v>
       </c>
       <c r="C19" t="n">
-        <v>47.52898845747952</v>
+        <v>47.7888782018367</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1944167610219908</v>
+        <v>0.4496119380120366</v>
       </c>
       <c r="E19" t="n">
-        <v>0.256847935012708</v>
+        <v>0.3775877911381426</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5066390676628298</v>
+        <v>0.505355891783198</v>
       </c>
       <c r="G19" t="n">
-        <v>16.15735393894095</v>
+        <v>24.73653289307617</v>
       </c>
       <c r="H19" t="n">
-        <v>18.97054695134249</v>
+        <v>23.32160958335866</v>
       </c>
       <c r="I19" t="n">
-        <v>25.58364892320659</v>
+        <v>25.61346980974483</v>
       </c>
       <c r="J19" t="n">
-        <v>17.79951502057002</v>
+        <v>34.84886334713991</v>
       </c>
       <c r="K19" t="n">
-        <v>22.32767022630665</v>
+        <v>30.54019434858646</v>
       </c>
       <c r="L19" t="n">
-        <v>38.12377784474479</v>
+        <v>38.07452949403231</v>
       </c>
       <c r="M19" t="n">
-        <v>388.1880600452423</v>
+        <v>204.7509953975677</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1335,43 +1335,43 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>228</v>
+        <v>380</v>
       </c>
       <c r="B20" t="n">
-        <v>353.4</v>
+        <v>589</v>
       </c>
       <c r="C20" t="n">
-        <v>46.96432550316587</v>
+        <v>47.16876697424489</v>
       </c>
       <c r="D20" t="n">
-        <v>0.255496900841984</v>
+        <v>0.5737101206548535</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3277517174648907</v>
+        <v>0.4859277577684628</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7117784973079395</v>
+        <v>0.7135143589604037</v>
       </c>
       <c r="G20" t="n">
-        <v>15.8566647356283</v>
+        <v>23.13961064425704</v>
       </c>
       <c r="H20" t="n">
-        <v>18.69021216405619</v>
+        <v>22.89636119132477</v>
       </c>
       <c r="I20" t="n">
-        <v>24.79484039523323</v>
+        <v>24.79146373387112</v>
       </c>
       <c r="J20" t="n">
-        <v>20.70317740991334</v>
+        <v>40.2553113548712</v>
       </c>
       <c r="K20" t="n">
-        <v>25.73269195527263</v>
+        <v>35.74456848408552</v>
       </c>
       <c r="L20" t="n">
-        <v>47.98634506301359</v>
+        <v>48.07144981495574</v>
       </c>
       <c r="M20" t="n">
-        <v>387.0199499130249</v>
+        <v>203.6603329181671</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1381,43 +1381,43 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>228</v>
+        <v>383</v>
       </c>
       <c r="B21" t="n">
-        <v>353.4</v>
+        <v>593.65</v>
       </c>
       <c r="C21" t="n">
-        <v>45.37599602837081</v>
+        <v>45.88998975784776</v>
       </c>
       <c r="D21" t="n">
-        <v>0.256250115184071</v>
+        <v>0.6548413829023693</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3395878312256848</v>
+        <v>0.559685027506814</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7734292633166545</v>
+        <v>0.7712718373113824</v>
       </c>
       <c r="G21" t="n">
-        <v>16.65105992701183</v>
+        <v>24.17163004120266</v>
       </c>
       <c r="H21" t="n">
-        <v>19.45647260489729</v>
+        <v>24.07459556989426</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3839302679906</v>
+        <v>26.3578315241267</v>
       </c>
       <c r="J21" t="n">
-        <v>21.13803572270946</v>
+        <v>44.82788416571979</v>
       </c>
       <c r="K21" t="n">
-        <v>26.70762786373289</v>
+        <v>40.02154916028783</v>
       </c>
       <c r="L21" t="n">
-        <v>51.86342829982803</v>
+        <v>51.74250762763246</v>
       </c>
       <c r="M21" t="n">
-        <v>386.2285056114197</v>
+        <v>195.6247959136963</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1427,43 +1427,43 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>228</v>
+        <v>383</v>
       </c>
       <c r="B22" t="n">
-        <v>353.4</v>
+        <v>593.65</v>
       </c>
       <c r="C22" t="n">
-        <v>44.56665427737251</v>
+        <v>44.19758448492289</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2520070454080112</v>
+        <v>0.49377815246863</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3178508559183798</v>
+        <v>0.4361927350998775</v>
       </c>
       <c r="F22" t="n">
-        <v>0.652475105183873</v>
+        <v>0.6545329083493071</v>
       </c>
       <c r="G22" t="n">
-        <v>16.49994494143744</v>
+        <v>22.72431932931646</v>
       </c>
       <c r="H22" t="n">
-        <v>19.20716438596949</v>
+        <v>22.89996405329981</v>
       </c>
       <c r="I22" t="n">
-        <v>24.68453168920064</v>
+        <v>24.69229964239667</v>
       </c>
       <c r="J22" t="n">
-        <v>20.85032474111928</v>
+        <v>36.05106728808973</v>
       </c>
       <c r="K22" t="n">
-        <v>25.49612498890374</v>
+        <v>33.25961878164378</v>
       </c>
       <c r="L22" t="n">
-        <v>44.96602110379397</v>
+        <v>45.07279523866369</v>
       </c>
       <c r="M22" t="n">
-        <v>346.1555073261261</v>
+        <v>200.2017319202423</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1473,43 +1473,43 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>228</v>
+        <v>390</v>
       </c>
       <c r="B23" t="n">
-        <v>353.4</v>
+        <v>604.5</v>
       </c>
       <c r="C23" t="n">
-        <v>47.36650081046999</v>
+        <v>47.09937745314639</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1955410281804817</v>
+        <v>0.5610976763854835</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2656319122482012</v>
+        <v>0.4771216919855096</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6718778008144564</v>
+        <v>0.6684530563257133</v>
       </c>
       <c r="G23" t="n">
-        <v>16.04166669710094</v>
+        <v>25.1699407995031</v>
       </c>
       <c r="H23" t="n">
-        <v>18.95642124234672</v>
+        <v>24.28686192269922</v>
       </c>
       <c r="I23" t="n">
-        <v>26.88900393531004</v>
+        <v>26.89526031487768</v>
       </c>
       <c r="J23" t="n">
-        <v>17.79788475757456</v>
+        <v>40.63985421902572</v>
       </c>
       <c r="K23" t="n">
-        <v>22.75980623358342</v>
+        <v>35.99951556062509</v>
       </c>
       <c r="L23" t="n">
-        <v>47.03839200837784</v>
+        <v>46.8702829737245</v>
       </c>
       <c r="M23" t="n">
-        <v>387.0905530452728</v>
+        <v>199.2508161067963</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -1519,43 +1519,43 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>228</v>
+        <v>406</v>
       </c>
       <c r="B24" t="n">
-        <v>353.4</v>
+        <v>629.3000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>48.45798457339105</v>
+        <v>48.25805067817929</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2021242618328541</v>
+        <v>0.5535594050368898</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2523602851073298</v>
+        <v>0.4172856436548002</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6343297927963573</v>
+        <v>0.6343935141096519</v>
       </c>
       <c r="G24" t="n">
-        <v>15.70048459062778</v>
+        <v>23.17750420652109</v>
       </c>
       <c r="H24" t="n">
-        <v>18.39993013757947</v>
+        <v>22.85211999719037</v>
       </c>
       <c r="I24" t="n">
-        <v>24.11602612804078</v>
+        <v>24.13862471564653</v>
       </c>
       <c r="J24" t="n">
-        <v>17.9564553869566</v>
+        <v>39.26672235510503</v>
       </c>
       <c r="K24" t="n">
-        <v>21.81797932415622</v>
+        <v>32.29034218133519</v>
       </c>
       <c r="L24" t="n">
-        <v>43.77450270383825</v>
+        <v>43.78898806330586</v>
       </c>
       <c r="M24" t="n">
-        <v>387.7816574573517</v>
+        <v>196.1725208759308</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -1565,43 +1565,43 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>228</v>
+        <v>329</v>
       </c>
       <c r="B25" t="n">
-        <v>353.4</v>
+        <v>509.95</v>
       </c>
       <c r="C25" t="n">
-        <v>42.12965346239348</v>
+        <v>41.98138419145711</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4451939459227885</v>
+        <v>0.5244022242598498</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4799348123564254</v>
+        <v>0.5181197234126397</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5963113759077528</v>
+        <v>0.5945984291959012</v>
       </c>
       <c r="G25" t="n">
-        <v>17.26850228583782</v>
+        <v>20.48770164667954</v>
       </c>
       <c r="H25" t="n">
-        <v>19.17910162104345</v>
+        <v>20.80796411315648</v>
       </c>
       <c r="I25" t="n">
-        <v>21.57409630042325</v>
+        <v>21.58141388190631</v>
       </c>
       <c r="J25" t="n">
-        <v>30.89394843905833</v>
+        <v>36.46396203633226</v>
       </c>
       <c r="K25" t="n">
-        <v>33.586291428343</v>
+        <v>36.30996822721022</v>
       </c>
       <c r="L25" t="n">
-        <v>40.60261694559927</v>
+        <v>40.52062840074822</v>
       </c>
       <c r="M25" t="n">
-        <v>385.0909514427185</v>
+        <v>199.2486929893494</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -1611,43 +1611,43 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>228</v>
+        <v>336</v>
       </c>
       <c r="B26" t="n">
-        <v>353.4</v>
+        <v>520.8000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>41.29013018239183</v>
+        <v>40.80327522681585</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4118338421238967</v>
+        <v>0.5231751101120168</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4662881955432578</v>
+        <v>0.5401002915915932</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6219917493691739</v>
+        <v>0.625857943529155</v>
       </c>
       <c r="G26" t="n">
-        <v>16.68403827448424</v>
+        <v>20.66387044258143</v>
       </c>
       <c r="H26" t="n">
-        <v>18.87129191853585</v>
+        <v>21.2623181293325</v>
       </c>
       <c r="I26" t="n">
-        <v>22.45328310376523</v>
+        <v>22.41329136435748</v>
       </c>
       <c r="J26" t="n">
-        <v>28.93371124343696</v>
+        <v>36.49069072689156</v>
       </c>
       <c r="K26" t="n">
-        <v>32.75005573643081</v>
+        <v>37.63617364424591</v>
       </c>
       <c r="L26" t="n">
-        <v>42.32622902034131</v>
+        <v>42.49954285863649</v>
       </c>
       <c r="M26" t="n">
-        <v>385.2453057765961</v>
+        <v>198.1396822929382</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -1657,43 +1657,43 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>228</v>
+        <v>329</v>
       </c>
       <c r="B27" t="n">
-        <v>353.4</v>
+        <v>509.95</v>
       </c>
       <c r="C27" t="n">
-        <v>50.82149832810491</v>
+        <v>51.11679262067927</v>
       </c>
       <c r="D27" t="n">
-        <v>0.560584482050448</v>
+        <v>0.6050190983188061</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6113832666455857</v>
+        <v>0.6077633302191391</v>
       </c>
       <c r="F27" t="n">
-        <v>0.490114107603988</v>
+        <v>0.4865691955409278</v>
       </c>
       <c r="G27" t="n">
-        <v>14.81231230437173</v>
+        <v>17.99910856513218</v>
       </c>
       <c r="H27" t="n">
-        <v>16.60162867335409</v>
+        <v>18.38520208348728</v>
       </c>
       <c r="I27" t="n">
-        <v>18.40739425309796</v>
+        <v>18.38808794659305</v>
       </c>
       <c r="J27" t="n">
-        <v>35.43538025470826</v>
+        <v>39.25050919850639</v>
       </c>
       <c r="K27" t="n">
-        <v>38.86997766895633</v>
+        <v>39.58076755270059</v>
       </c>
       <c r="L27" t="n">
-        <v>33.70940250674838</v>
+        <v>33.52250375034292</v>
       </c>
       <c r="M27" t="n">
-        <v>380.1895875930786</v>
+        <v>193.7581112384796</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -1703,43 +1703,43 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>228</v>
+        <v>374</v>
       </c>
       <c r="B28" t="n">
-        <v>353.4</v>
+        <v>579.7</v>
       </c>
       <c r="C28" t="n">
-        <v>45.72826845529245</v>
+        <v>45.65391324835774</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2403070165802188</v>
+        <v>0.5097179932199336</v>
       </c>
       <c r="E28" t="n">
-        <v>0.299117085075975</v>
+        <v>0.4412719526098632</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6097625088018125</v>
+        <v>0.6128736404585258</v>
       </c>
       <c r="G28" t="n">
-        <v>16.28142716489959</v>
+        <v>23.99854329481365</v>
       </c>
       <c r="H28" t="n">
-        <v>19.06138091797387</v>
+        <v>23.32842857430342</v>
       </c>
       <c r="I28" t="n">
-        <v>25.44795922571051</v>
+        <v>25.464628706913</v>
       </c>
       <c r="J28" t="n">
-        <v>20.15606441146073</v>
+        <v>37.4851713084035</v>
       </c>
       <c r="K28" t="n">
-        <v>24.48654471278568</v>
+        <v>33.72781191764487</v>
       </c>
       <c r="L28" t="n">
-        <v>43.21210505294588</v>
+        <v>43.37599637638279</v>
       </c>
       <c r="M28" t="n">
-        <v>379.3298180103302</v>
+        <v>199.3064758777618</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -1749,43 +1749,43 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>228</v>
+        <v>343</v>
       </c>
       <c r="B29" t="n">
-        <v>353.4</v>
+        <v>531.65</v>
       </c>
       <c r="C29" t="n">
-        <v>45.13183755412003</v>
+        <v>45.10048529964048</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3034520039380429</v>
+        <v>0.5087086362206502</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3768224503475114</v>
+        <v>0.4929888326730954</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6166371829312569</v>
+        <v>0.6195006848471066</v>
       </c>
       <c r="G29" t="n">
-        <v>16.38791993972161</v>
+        <v>22.9952030411653</v>
       </c>
       <c r="H29" t="n">
-        <v>19.09438862283973</v>
+        <v>22.41207439969211</v>
       </c>
       <c r="I29" t="n">
-        <v>24.47427872351451</v>
+        <v>24.53146095343507</v>
       </c>
       <c r="J29" t="n">
-        <v>23.36656016676295</v>
+        <v>36.93303333161516</v>
       </c>
       <c r="K29" t="n">
-        <v>28.38831682879543</v>
+        <v>35.85547883350083</v>
       </c>
       <c r="L29" t="n">
-        <v>43.0689985083201</v>
+        <v>43.24076471907286</v>
       </c>
       <c r="M29" t="n">
-        <v>386.9042634963989</v>
+        <v>196.1004796028137</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -1795,43 +1795,43 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>228</v>
+        <v>348</v>
       </c>
       <c r="B30" t="n">
-        <v>353.4</v>
+        <v>539.4</v>
       </c>
       <c r="C30" t="n">
-        <v>39.55999587733328</v>
+        <v>39.40163122004425</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5317937771251299</v>
+        <v>0.7027347765671829</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5590238225987841</v>
+        <v>0.6839834401230356</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7834122396445122</v>
+        <v>0.7816568696803189</v>
       </c>
       <c r="G30" t="n">
-        <v>17.54411486051304</v>
+        <v>21.32954887805702</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03910444023438</v>
+        <v>22.08702371108776</v>
       </c>
       <c r="I30" t="n">
-        <v>23.25282363688363</v>
+        <v>23.25828000906604</v>
       </c>
       <c r="J30" t="n">
-        <v>35.36174628651302</v>
+        <v>45.80151326738766</v>
       </c>
       <c r="K30" t="n">
-        <v>37.9707433500564</v>
+        <v>45.24268386169565</v>
       </c>
       <c r="L30" t="n">
-        <v>50.79702380066743</v>
+        <v>50.71198348854897</v>
       </c>
       <c r="M30" t="n">
-        <v>384.3577854633331</v>
+        <v>196.2305324077606</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -1841,43 +1841,43 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>228</v>
+        <v>329</v>
       </c>
       <c r="B31" t="n">
-        <v>353.4</v>
+        <v>509.95</v>
       </c>
       <c r="C31" t="n">
-        <v>45.00996333534493</v>
+        <v>45.40239390837139</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4386730382115262</v>
+        <v>0.5006775402425478</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4757722314391798</v>
+        <v>0.4937346761358209</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5199844630292841</v>
+        <v>0.5190797729466926</v>
       </c>
       <c r="G31" t="n">
-        <v>16.40592113515066</v>
+        <v>19.87417891843819</v>
       </c>
       <c r="H31" t="n">
-        <v>18.29252214625504</v>
+        <v>20.0395688866981</v>
       </c>
       <c r="I31" t="n">
-        <v>20.56585484039489</v>
+        <v>20.56597708902112</v>
       </c>
       <c r="J31" t="n">
-        <v>30.13661247815164</v>
+        <v>34.97096647134649</v>
       </c>
       <c r="K31" t="n">
-        <v>32.93487264508651</v>
+        <v>34.70651825014009</v>
       </c>
       <c r="L31" t="n">
-        <v>36.28215057166165</v>
+        <v>36.23697719184519</v>
       </c>
       <c r="M31" t="n">
-        <v>388.045250415802</v>
+        <v>196.2163088321686</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -1887,43 +1887,43 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>228</v>
+        <v>347</v>
       </c>
       <c r="B32" t="n">
-        <v>353.4</v>
+        <v>537.85</v>
       </c>
       <c r="C32" t="n">
-        <v>43.42528460110486</v>
+        <v>43.0047537888105</v>
       </c>
       <c r="D32" t="n">
-        <v>0.295316470732495</v>
+        <v>0.4982926665919031</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3298461591842574</v>
+        <v>0.4540581226217977</v>
       </c>
       <c r="F32" t="n">
-        <v>0.60591759412431</v>
+        <v>0.6062456607287509</v>
       </c>
       <c r="G32" t="n">
-        <v>16.90949177706885</v>
+        <v>23.31174409236374</v>
       </c>
       <c r="H32" t="n">
-        <v>19.42648629692341</v>
+        <v>22.76955574203043</v>
       </c>
       <c r="I32" t="n">
-        <v>24.75270736123408</v>
+        <v>24.77073845439692</v>
       </c>
       <c r="J32" t="n">
-        <v>23.22056942515918</v>
+        <v>36.57050537577702</v>
       </c>
       <c r="K32" t="n">
-        <v>26.20555110767458</v>
+        <v>34.08768400210511</v>
       </c>
       <c r="L32" t="n">
-        <v>42.67223338683254</v>
+        <v>42.697652263636</v>
       </c>
       <c r="M32" t="n">
-        <v>387.2436056137085</v>
+        <v>199.6413643360138</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -1933,43 +1933,43 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>228</v>
+        <v>441</v>
       </c>
       <c r="B33" t="n">
-        <v>353.4</v>
+        <v>683.5500000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>47.74593463400714</v>
+        <v>47.61546378371606</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1455378428000549</v>
+        <v>0.5903284069138607</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2097120005610821</v>
+        <v>0.4893823781074848</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6769893652460391</v>
+        <v>0.679459945067446</v>
       </c>
       <c r="G33" t="n">
-        <v>16.16938695866699</v>
+        <v>26.42335973972074</v>
       </c>
       <c r="H33" t="n">
-        <v>19.10497063074502</v>
+        <v>25.83466566788623</v>
       </c>
       <c r="I33" t="n">
-        <v>27.915098563559</v>
+        <v>27.96603360567194</v>
       </c>
       <c r="J33" t="n">
-        <v>15.36158561933624</v>
+        <v>42.7281002155534</v>
       </c>
       <c r="K33" t="n">
-        <v>20.03808534342662</v>
+        <v>37.38645173931735</v>
       </c>
       <c r="L33" t="n">
-        <v>47.80701754408145</v>
+        <v>47.95601405620827</v>
       </c>
       <c r="M33" t="n">
-        <v>369.3768918514252</v>
+        <v>195.4525196552277</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -1979,43 +1979,43 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>228</v>
+        <v>391</v>
       </c>
       <c r="B34" t="n">
-        <v>353.4</v>
+        <v>606.0500000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>46.62594907863553</v>
+        <v>46.24883973901487</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2281645116641721</v>
+        <v>0.6303190575871748</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3044849464885444</v>
+        <v>0.522482496638765</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7571694170214681</v>
+        <v>0.7561941833044308</v>
       </c>
       <c r="G34" t="n">
-        <v>16.20772506723176</v>
+        <v>24.08007479739785</v>
       </c>
       <c r="H34" t="n">
-        <v>19.02710277194451</v>
+        <v>23.93860811689933</v>
       </c>
       <c r="I34" t="n">
-        <v>26.28676284222667</v>
+        <v>26.32847170062869</v>
       </c>
       <c r="J34" t="n">
-        <v>19.51208811682449</v>
+        <v>43.55599027805766</v>
       </c>
       <c r="K34" t="n">
-        <v>24.73779871039947</v>
+        <v>38.09342889038791</v>
       </c>
       <c r="L34" t="n">
-        <v>51.00185227218674</v>
+        <v>50.97394501553588</v>
       </c>
       <c r="M34" t="n">
-        <v>358.4649500846863</v>
+        <v>197.6236696243286</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2025,43 +2025,43 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>228</v>
+        <v>412</v>
       </c>
       <c r="B35" t="n">
-        <v>353.4</v>
+        <v>638.6</v>
       </c>
       <c r="C35" t="n">
-        <v>48.26660206426625</v>
+        <v>48.78396657820605</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1949380478121886</v>
+        <v>0.6392701695928693</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2822369506584223</v>
+        <v>0.5377388227398728</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7305135473562799</v>
+        <v>0.7350314592539389</v>
       </c>
       <c r="G35" t="n">
-        <v>15.62009245529493</v>
+        <v>24.9173320871527</v>
       </c>
       <c r="H35" t="n">
-        <v>18.70772209582773</v>
+        <v>24.70916021644775</v>
       </c>
       <c r="I35" t="n">
-        <v>27.00217974416309</v>
+        <v>27.0910865412593</v>
       </c>
       <c r="J35" t="n">
-        <v>17.55694861825689</v>
+        <v>44.42217452321982</v>
       </c>
       <c r="K35" t="n">
-        <v>23.46570858083498</v>
+        <v>39.24152124521751</v>
       </c>
       <c r="L35" t="n">
-        <v>50.02676723989554</v>
+        <v>50.29711623332659</v>
       </c>
       <c r="M35" t="n">
-        <v>382.4894287586212</v>
+        <v>198.8390004634857</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2071,43 +2071,43 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>228</v>
+        <v>329</v>
       </c>
       <c r="B36" t="n">
-        <v>353.4</v>
+        <v>509.95</v>
       </c>
       <c r="C36" t="n">
-        <v>44.45738373842202</v>
+        <v>44.42225349061834</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3578569106408858</v>
+        <v>0.4403753809004474</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4156116425918275</v>
+        <v>0.4653785309409442</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5070414337489442</v>
+        <v>0.5115498968509012</v>
       </c>
       <c r="G36" t="n">
-        <v>16.44129180318032</v>
+        <v>21.22933068381185</v>
       </c>
       <c r="H36" t="n">
-        <v>18.79453330101374</v>
+        <v>21.16883308088271</v>
       </c>
       <c r="I36" t="n">
-        <v>22.48120608961583</v>
+        <v>22.53292377373642</v>
       </c>
       <c r="J36" t="n">
-        <v>26.11349143363445</v>
+        <v>32.63343438692829</v>
       </c>
       <c r="K36" t="n">
-        <v>30.17784878009824</v>
+        <v>33.85334308748857</v>
       </c>
       <c r="L36" t="n">
-        <v>36.59267473225512</v>
+        <v>36.84395672941327</v>
       </c>
       <c r="M36" t="n">
-        <v>384.4402523040771</v>
+        <v>195.4447996616364</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2117,43 +2117,43 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>228</v>
+        <v>329</v>
       </c>
       <c r="B37" t="n">
-        <v>353.4</v>
+        <v>509.95</v>
       </c>
       <c r="C37" t="n">
-        <v>45.62403429816104</v>
+        <v>45.9299980284689</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3563262362058424</v>
+        <v>0.4186338041970625</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4059760417067855</v>
+        <v>0.4298432858461604</v>
       </c>
       <c r="F37" t="n">
-        <v>0.44102049763113</v>
+        <v>0.4356870644644672</v>
       </c>
       <c r="G37" t="n">
-        <v>16.62028396868047</v>
+        <v>21.18975321999171</v>
       </c>
       <c r="H37" t="n">
-        <v>18.79650414526078</v>
+        <v>21.01848694239088</v>
       </c>
       <c r="I37" t="n">
-        <v>22.03008660508826</v>
+        <v>22.01499212242728</v>
       </c>
       <c r="J37" t="n">
-        <v>26.12645379463235</v>
+        <v>31.52656681984898</v>
       </c>
       <c r="K37" t="n">
-        <v>29.69705415796967</v>
+        <v>32.00140776350347</v>
       </c>
       <c r="L37" t="n">
-        <v>33.06606818410063</v>
+        <v>32.791849284437</v>
       </c>
       <c r="M37" t="n">
-        <v>384.8276302814484</v>
+        <v>199.6866064071655</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -2163,43 +2163,43 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>228</v>
+        <v>339</v>
       </c>
       <c r="B38" t="n">
-        <v>353.4</v>
+        <v>525.45</v>
       </c>
       <c r="C38" t="n">
-        <v>49.85721077754877</v>
+        <v>49.71612421847117</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3213547148016251</v>
+        <v>0.5034558621214915</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3988740637986403</v>
+        <v>0.4762746404707331</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5643797258294249</v>
+        <v>0.5625047681818127</v>
       </c>
       <c r="G38" t="n">
-        <v>15.15990281342646</v>
+        <v>21.36058429852021</v>
       </c>
       <c r="H38" t="n">
-        <v>17.78963192862633</v>
+        <v>20.91481710618269</v>
       </c>
       <c r="I38" t="n">
-        <v>22.37977104100441</v>
+        <v>22.35293733114116</v>
       </c>
       <c r="J38" t="n">
-        <v>23.64768714679449</v>
+        <v>35.85308525533468</v>
       </c>
       <c r="K38" t="n">
-        <v>28.83851915424518</v>
+        <v>34.271140576628</v>
       </c>
       <c r="L38" t="n">
-        <v>39.40887181197345</v>
+        <v>39.30170707466121</v>
       </c>
       <c r="M38" t="n">
-        <v>381.1336584091187</v>
+        <v>194.4430220127106</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -2209,43 +2209,43 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>228</v>
+        <v>390</v>
       </c>
       <c r="B39" t="n">
-        <v>353.4</v>
+        <v>604.5</v>
       </c>
       <c r="C39" t="n">
-        <v>47.09341071219286</v>
+        <v>47.32329142574487</v>
       </c>
       <c r="D39" t="n">
-        <v>0.271445868786862</v>
+        <v>0.6638339272506378</v>
       </c>
       <c r="E39" t="n">
-        <v>0.367089097446158</v>
+        <v>0.5913628774121591</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7821938735755859</v>
+        <v>0.7823488594557855</v>
       </c>
       <c r="G39" t="n">
-        <v>16.03724560021663</v>
+        <v>24.35787303852333</v>
       </c>
       <c r="H39" t="n">
-        <v>19.07280008456748</v>
+        <v>24.28268455373586</v>
       </c>
       <c r="I39" t="n">
-        <v>26.76720257802552</v>
+        <v>26.75073150150976</v>
       </c>
       <c r="J39" t="n">
-        <v>21.59091623945141</v>
+        <v>45.37063288179355</v>
       </c>
       <c r="K39" t="n">
-        <v>27.89085491459164</v>
+        <v>41.70948614747589</v>
       </c>
       <c r="L39" t="n">
-        <v>52.49329496779205</v>
+        <v>52.49280872354416</v>
       </c>
       <c r="M39" t="n">
-        <v>384.6859197616577</v>
+        <v>197.9367899894714</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -2255,43 +2255,43 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>228</v>
+        <v>398</v>
       </c>
       <c r="B40" t="n">
-        <v>353.4</v>
+        <v>616.9</v>
       </c>
       <c r="C40" t="n">
-        <v>41.70191731552584</v>
+        <v>41.81189764214427</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4676592191259464</v>
+        <v>0.742820309683465</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4819212789656112</v>
+        <v>0.6271826179266986</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8009550330487827</v>
+        <v>0.8021037516938712</v>
       </c>
       <c r="G40" t="n">
-        <v>16.27437906615443</v>
+        <v>20.04715007155215</v>
       </c>
       <c r="H40" t="n">
-        <v>17.91958635250198</v>
+        <v>19.46700001731945</v>
       </c>
       <c r="I40" t="n">
-        <v>21.13691065493521</v>
+        <v>21.10922328897939</v>
       </c>
       <c r="J40" t="n">
-        <v>31.52015048937454</v>
+        <v>47.16459051994933</v>
       </c>
       <c r="K40" t="n">
-        <v>33.05585712453155</v>
+        <v>41.09263090499466</v>
       </c>
       <c r="L40" t="n">
-        <v>50.61620697990674</v>
+        <v>50.65979922918326</v>
       </c>
       <c r="M40" t="n">
-        <v>385.885107755661</v>
+        <v>194.7586982250214</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -2301,43 +2301,43 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>228</v>
+        <v>450</v>
       </c>
       <c r="B41" t="n">
-        <v>353.4</v>
+        <v>697.5</v>
       </c>
       <c r="C41" t="n">
-        <v>44.33055514516797</v>
+        <v>44.58773581946189</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2271116308503882</v>
+        <v>0.6971588359025918</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2558775483737208</v>
+        <v>0.5661096410075501</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7733658588357417</v>
+        <v>0.7800836788763033</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44496377793115</v>
+        <v>25.2309891165261</v>
       </c>
       <c r="H41" t="n">
-        <v>19.34301252358175</v>
+        <v>25.68199440486719</v>
       </c>
       <c r="I41" t="n">
-        <v>27.85185597103051</v>
+        <v>27.86014569635884</v>
       </c>
       <c r="J41" t="n">
-        <v>19.57806343148498</v>
+        <v>47.47343635339264</v>
       </c>
       <c r="K41" t="n">
-        <v>22.46538368047692</v>
+        <v>41.1464792528111</v>
       </c>
       <c r="L41" t="n">
-        <v>52.59422092730235</v>
+        <v>52.93425679199459</v>
       </c>
       <c r="M41" t="n">
-        <v>387.7503321170807</v>
+        <v>198.470118522644</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -2347,43 +2347,43 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>228</v>
+        <v>468</v>
       </c>
       <c r="B42" t="n">
-        <v>353.4</v>
+        <v>725.4</v>
       </c>
       <c r="C42" t="n">
-        <v>46.24585071285948</v>
+        <v>45.80118711985541</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1417551523218709</v>
+        <v>0.7232897287137914</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1950065169462461</v>
+        <v>0.5900117538319445</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8014550019849402</v>
+        <v>0.7995497981961968</v>
       </c>
       <c r="G42" t="n">
-        <v>17.07822964921739</v>
+        <v>27.28994661879656</v>
       </c>
       <c r="H42" t="n">
-        <v>19.80090493813463</v>
+        <v>27.53282494101898</v>
       </c>
       <c r="I42" t="n">
-        <v>30.00013799062563</v>
+        <v>30.05730365436225</v>
       </c>
       <c r="J42" t="n">
-        <v>15.62687244070224</v>
+        <v>49.80945974508785</v>
       </c>
       <c r="K42" t="n">
-        <v>19.65077831637962</v>
+        <v>43.26700016210671</v>
       </c>
       <c r="L42" t="n">
-        <v>55.07281909455983</v>
+        <v>55.00614173699097</v>
       </c>
       <c r="M42" t="n">
-        <v>387.611692905426</v>
+        <v>195.7362816333771</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -2393,43 +2393,43 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>228</v>
+        <v>359</v>
       </c>
       <c r="B43" t="n">
-        <v>353.4</v>
+        <v>556.45</v>
       </c>
       <c r="C43" t="n">
-        <v>45.72320662291955</v>
+        <v>45.53621574825013</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2719172861688663</v>
+        <v>0.4409144593383519</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3337480969620453</v>
+        <v>0.411278314955365</v>
       </c>
       <c r="F43" t="n">
-        <v>0.5493216354068715</v>
+        <v>0.5513958075930376</v>
       </c>
       <c r="G43" t="n">
-        <v>16.32063955815908</v>
+        <v>22.86831876291465</v>
       </c>
       <c r="H43" t="n">
-        <v>18.98255435362213</v>
+        <v>22.3801985391563</v>
       </c>
       <c r="I43" t="n">
-        <v>23.9755577033669</v>
+        <v>24.00015611406303</v>
       </c>
       <c r="J43" t="n">
-        <v>21.75618408752286</v>
+        <v>33.47988234837492</v>
       </c>
       <c r="K43" t="n">
-        <v>26.17868202491333</v>
+        <v>31.7540150173464</v>
       </c>
       <c r="L43" t="n">
-        <v>39.45386062202702</v>
+        <v>39.56986843668339</v>
       </c>
       <c r="M43" t="n">
-        <v>388.6422371864319</v>
+        <v>196.3127579689026</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -2439,43 +2439,43 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>228</v>
+        <v>338</v>
       </c>
       <c r="B44" t="n">
-        <v>353.4</v>
+        <v>523.9</v>
       </c>
       <c r="C44" t="n">
-        <v>47.06830515475898</v>
+        <v>46.80735214281955</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3118783911992277</v>
+        <v>0.4937343903967023</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3921042469456397</v>
+        <v>0.4761217932895568</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5856144594863388</v>
+        <v>0.5865090160359244</v>
       </c>
       <c r="G44" t="n">
-        <v>15.70148494196843</v>
+        <v>22.03427279048583</v>
       </c>
       <c r="H44" t="n">
-        <v>18.46547475205046</v>
+        <v>21.54440076918171</v>
       </c>
       <c r="I44" t="n">
-        <v>23.40664768070767</v>
+        <v>23.42112538253183</v>
       </c>
       <c r="J44" t="n">
-        <v>23.4446620309456</v>
+        <v>35.70385591507803</v>
       </c>
       <c r="K44" t="n">
-        <v>28.83794972330722</v>
+        <v>34.5782900490687</v>
       </c>
       <c r="L44" t="n">
-        <v>40.98404681467078</v>
+        <v>41.03601349306214</v>
       </c>
       <c r="M44" t="n">
-        <v>386.6491708755493</v>
+        <v>199.0342724323273</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -2485,43 +2485,43 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>228</v>
+        <v>416</v>
       </c>
       <c r="B45" t="n">
-        <v>353.4</v>
+        <v>644.8000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>46.5244494421212</v>
+        <v>46.78046787445687</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1856746606298299</v>
+        <v>0.5675496076628769</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2433611321963149</v>
+        <v>0.4648002346625387</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6771831271564562</v>
+        <v>0.6760874490189809</v>
       </c>
       <c r="G45" t="n">
-        <v>16.46088400271251</v>
+        <v>24.79514373570742</v>
       </c>
       <c r="H45" t="n">
-        <v>19.1967725039726</v>
+        <v>24.68987116114213</v>
       </c>
       <c r="I45" t="n">
-        <v>26.70199714598013</v>
+        <v>26.72251846285612</v>
       </c>
       <c r="J45" t="n">
-        <v>17.51417503284775</v>
+        <v>40.77505225099755</v>
       </c>
       <c r="K45" t="n">
-        <v>21.76644286180204</v>
+        <v>35.584947313698</v>
       </c>
       <c r="L45" t="n">
-        <v>47.21015493081288</v>
+        <v>47.16563168237711</v>
       </c>
       <c r="M45" t="n">
-        <v>216.4443876743317</v>
+        <v>195.461309671402</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -2531,43 +2531,43 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>228</v>
+        <v>394</v>
       </c>
       <c r="B46" t="n">
-        <v>353.4</v>
+        <v>610.7</v>
       </c>
       <c r="C46" t="n">
-        <v>46.95544608771842</v>
+        <v>46.92851940176602</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1889225455982095</v>
+        <v>0.5658160243429357</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2649121568410664</v>
+        <v>0.4870584415677718</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6907075283957687</v>
+        <v>0.6946736310275535</v>
       </c>
       <c r="G46" t="n">
-        <v>15.94536345855699</v>
+        <v>25.35371248871269</v>
       </c>
       <c r="H46" t="n">
-        <v>18.91985639689812</v>
+        <v>24.32873385184836</v>
       </c>
       <c r="I46" t="n">
-        <v>26.99130432778411</v>
+        <v>27.02783240482765</v>
       </c>
       <c r="J46" t="n">
-        <v>17.41880900918898</v>
+        <v>40.96765746150312</v>
       </c>
       <c r="K46" t="n">
-        <v>22.70553604050238</v>
+        <v>36.51728900431277</v>
       </c>
       <c r="L46" t="n">
-        <v>48.0310285836805</v>
+        <v>48.2475977537915</v>
       </c>
       <c r="M46" t="n">
-        <v>190.196706533432</v>
+        <v>198.9997675418854</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -2577,43 +2577,43 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>228</v>
+        <v>464</v>
       </c>
       <c r="B47" t="n">
-        <v>353.4</v>
+        <v>719.2</v>
       </c>
       <c r="C47" t="n">
-        <v>43.84736789718286</v>
+        <v>44.17513992428393</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2002503905111016</v>
+        <v>0.7319303199043905</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2334238884719935</v>
+        <v>0.6178945572987111</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7856312294229603</v>
+        <v>0.7900841708918575</v>
       </c>
       <c r="G47" t="n">
-        <v>17.61219623123504</v>
+        <v>26.18589096980714</v>
       </c>
       <c r="H47" t="n">
-        <v>20.13623726307879</v>
+        <v>26.57649658416524</v>
       </c>
       <c r="I47" t="n">
-        <v>28.48010752999423</v>
+        <v>28.54489752530157</v>
       </c>
       <c r="J47" t="n">
-        <v>18.8186176411726</v>
+        <v>49.68946148012309</v>
       </c>
       <c r="K47" t="n">
-        <v>21.73931305513907</v>
+        <v>44.18297615701817</v>
       </c>
       <c r="L47" t="n">
-        <v>53.52161523614513</v>
+        <v>53.77665730724365</v>
       </c>
       <c r="M47" t="n">
-        <v>189.9731283187866</v>
+        <v>196.1300430297852</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -2623,43 +2623,43 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>228</v>
+        <v>384</v>
       </c>
       <c r="B48" t="n">
-        <v>353.4</v>
+        <v>595.2</v>
       </c>
       <c r="C48" t="n">
-        <v>45.58987682708154</v>
+        <v>46.01378407951738</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2529229003394621</v>
+        <v>0.6267346008305064</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3248350987017081</v>
+        <v>0.5315896394397066</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7281904259608967</v>
+        <v>0.7287387087485205</v>
       </c>
       <c r="G48" t="n">
-        <v>16.54497459097402</v>
+        <v>24.00317885942926</v>
       </c>
       <c r="H48" t="n">
-        <v>19.29845633162961</v>
+        <v>23.88448503390835</v>
       </c>
       <c r="I48" t="n">
-        <v>26.10755454046996</v>
+        <v>26.05216428901256</v>
       </c>
       <c r="J48" t="n">
-        <v>20.91863231246012</v>
+        <v>43.33831947123995</v>
       </c>
       <c r="K48" t="n">
-        <v>25.89098310090021</v>
+        <v>38.52172448893951</v>
       </c>
       <c r="L48" t="n">
-        <v>49.46329856827982</v>
+        <v>49.46301758193231</v>
       </c>
       <c r="M48" t="n">
-        <v>189.0591731071472</v>
+        <v>197.6660192012787</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -2669,43 +2669,43 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>228</v>
+        <v>528</v>
       </c>
       <c r="B49" t="n">
-        <v>353.4</v>
+        <v>818.4</v>
       </c>
       <c r="C49" t="n">
-        <v>46.35709791149078</v>
+        <v>46.11054142950133</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1217896323934589</v>
+        <v>0.671072869305818</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1692075505121931</v>
+        <v>0.5615944507716329</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7419643585833744</v>
+        <v>0.7421094535153478</v>
       </c>
       <c r="G49" t="n">
-        <v>16.64683489424075</v>
+        <v>27.23902908405085</v>
       </c>
       <c r="H49" t="n">
-        <v>19.45937366110807</v>
+        <v>27.18375666745027</v>
       </c>
       <c r="I49" t="n">
-        <v>29.01636755231036</v>
+        <v>29.01096407453341</v>
       </c>
       <c r="J49" t="n">
-        <v>14.41289906679332</v>
+        <v>47.17315800731632</v>
       </c>
       <c r="K49" t="n">
-        <v>18.19006435616369</v>
+        <v>41.67160087230678</v>
       </c>
       <c r="L49" t="n">
-        <v>51.6064017053239</v>
+        <v>51.6109547130341</v>
       </c>
       <c r="M49" t="n">
-        <v>193.6627418994904</v>
+        <v>196.408554315567</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -2715,43 +2715,43 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>228</v>
+        <v>391</v>
       </c>
       <c r="B50" t="n">
-        <v>353.4</v>
+        <v>606.0500000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>48.27681621987012</v>
+        <v>48.09427919212099</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2154777881128202</v>
+        <v>0.5770595829543729</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2920261968031422</v>
+        <v>0.4885842332986766</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7027174872261747</v>
+        <v>0.7028495205931495</v>
       </c>
       <c r="G50" t="n">
-        <v>15.58573150074997</v>
+        <v>23.79341050384964</v>
       </c>
       <c r="H50" t="n">
-        <v>18.53525014281768</v>
+        <v>23.529109309903</v>
       </c>
       <c r="I50" t="n">
-        <v>25.7538253459559</v>
+        <v>25.69459563170748</v>
       </c>
       <c r="J50" t="n">
-        <v>18.56675515601599</v>
+        <v>40.74968439964346</v>
       </c>
       <c r="K50" t="n">
-        <v>23.86893491156595</v>
+        <v>36.19376631988533</v>
       </c>
       <c r="L50" t="n">
-        <v>48.01278703428668</v>
+        <v>47.98977384551121</v>
       </c>
       <c r="M50" t="n">
-        <v>188.9485838413239</v>
+        <v>195.5256927013397</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -2761,43 +2761,43 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>228</v>
+        <v>355</v>
       </c>
       <c r="B51" t="n">
-        <v>353.4</v>
+        <v>550.25</v>
       </c>
       <c r="C51" t="n">
-        <v>39.73909425247601</v>
+        <v>40.03768015001243</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3602454270113833</v>
+        <v>0.5937789822753139</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3273108885765334</v>
+        <v>0.5280469226713344</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6740819587401066</v>
+        <v>0.6724494814596124</v>
       </c>
       <c r="G51" t="n">
-        <v>18.05180324798771</v>
+        <v>24.48266190674624</v>
       </c>
       <c r="H51" t="n">
-        <v>20.29526271033589</v>
+        <v>23.76733045995657</v>
       </c>
       <c r="I51" t="n">
-        <v>25.36550479468604</v>
+        <v>25.44875015746982</v>
       </c>
       <c r="J51" t="n">
-        <v>27.03817297456302</v>
+        <v>41.93028006713882</v>
       </c>
       <c r="K51" t="n">
-        <v>26.51317578399462</v>
+        <v>38.286011363545</v>
       </c>
       <c r="L51" t="n">
-        <v>46.38685033434835</v>
+        <v>46.34684915171552</v>
       </c>
       <c r="M51" t="n">
-        <v>190.8245768547058</v>
+        <v>199.3987300395966</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
